--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_拍卖会.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_拍卖会.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>备注</t>
   </si>
@@ -106,7 +106,10 @@
     <t>夜摩坊拍賣會</t>
   </si>
   <si>
-    <t>Night Demon Square Auction</t>
+    <t>Night Auction Market Auction</t>
+  </si>
+  <si>
+    <t>AuctionName_106</t>
   </si>
   <si>
     <t>下面拍品是{0}{1}{2}，起拍价{3}文。</t>
@@ -139,10 +142,10 @@
     <t>AuctionCommissionChargeTip</t>
   </si>
   <si>
-    <t>竞拍成功将扣除&lt;#62FF52&gt;10%&lt;/color&gt;服务费用</t>
-  </si>
-  <si>
-    <t>競拍成功將扣除&lt;#62FF52&gt;10%&lt;/color&gt;服務費用</t>
+    <t>竞拍成功扣除&lt;#62FF52&gt;10%&lt;/color&gt;服务费用</t>
+  </si>
+  <si>
+    <t>競拍成功扣除&lt;#62FF52&gt;10%&lt;/color&gt;服務費用</t>
   </si>
   <si>
     <t>Successful bids will be charged a &lt;#62FF52&gt;10%&lt;/color&gt; service fee.</t>
@@ -340,11 +343,11 @@
     <t>AuctionStealed</t>
   </si>
   <si>
-    <t xml:space="preserve">想不到在我眼皮底下竟然发生拍品失窃的事情!
+    <t>想不到在我眼皮底下竟然发生拍品失窃的事情!
 本次拍卖提前结束，各位抱歉了。</t>
   </si>
   <si>
-    <t xml:space="preserve">想不到在我眼皮底下竟然發生拍品失竊的事情!
+    <t>想不到在我眼皮底下竟然發生拍品失竊的事情!
 本次拍賣提前結束，各位抱歉了。</t>
   </si>
   <si>
@@ -357,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -369,53 +372,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +414,46 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,40 +461,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +476,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,6 +484,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,12 +492,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,18 +507,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -522,49 +548,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,121 +686,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,21 +778,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -795,6 +806,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,374 +877,227 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="5" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="11" applyFill="1" borderId="4" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="9" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1498,573 +1377,592 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1" style="52"/>
-    <col min="2" max="2" width="22.25" customWidth="1" style="52"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="53"/>
-    <col min="4" max="4" width="107.25" customWidth="1" style="54"/>
-    <col min="5" max="5" width="63.625" customWidth="1" style="53"/>
-    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="55"/>
-    <col min="8" max="8" width="15.75" customWidth="1" style="55"/>
-    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="55"/>
-    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="55"/>
-    <col min="11" max="11" width="14.75" customWidth="1" style="55"/>
-    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="55"/>
-    <col min="13" max="13" width="19.25" customWidth="1" style="55"/>
-    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="55"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="55"/>
+    <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="107.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="63.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="18.3833333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.3833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.1333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.3833333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="57" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="57" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="57" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="57" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="63" t="s">
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="E10" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="63"/>
-      <c r="B10" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="64" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="E11" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="63"/>
-      <c r="B11" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="61" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="63"/>
-      <c r="B12" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="63" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="61" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="E13" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" ht="33">
-      <c r="A13" s="63"/>
-      <c r="B13" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="63" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="61" t="s">
+    </row>
+    <row r="14" ht="33" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="D14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" ht="33">
-      <c r="A14" s="63"/>
-      <c r="B14" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="63" t="s">
+    </row>
+    <row r="15" ht="33" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="61" t="s">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="63"/>
-      <c r="B16" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="63" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="61" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="D17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="E17" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="63"/>
-      <c r="B17" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="63" t="s">
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="64" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="D18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="E18" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="63"/>
-      <c r="B18" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="63" t="s">
+      <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="61" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="63"/>
-      <c r="B19" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="E19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="61" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="D20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="E20" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="63"/>
-      <c r="B20" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="63" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="61" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="D21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="E21" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="63"/>
-      <c r="B21" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="63" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="61" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="50" t="s">
+      <c r="D22" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="63"/>
-      <c r="B22" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="61" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="D23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="63" t="s">
+      <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="61" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="D24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="E24" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="63"/>
-      <c r="B24" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="63" t="s">
+      <c r="F24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="61" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="D25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="E25" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="63" t="s">
+      <c r="F25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="61" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="D26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="E26" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="63"/>
-      <c r="B26" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="63" t="s">
+      <c r="F26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="61" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="E27" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="63"/>
-      <c r="B27" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="63" t="s">
+      <c r="F27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="61" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="D28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="E28" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="63"/>
-      <c r="B28" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="63" t="s">
+      <c r="F28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="61" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="D29" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="E29" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" ht="33">
-      <c r="A29" s="63"/>
-      <c r="B29" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="63" t="s">
+      <c r="F29" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="61" t="s">
+    </row>
+    <row r="30" ht="33" spans="1:6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="D30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="E30" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="63" t="s">
+      <c r="F30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C16 C30:C1048576 D12:D16 C17:D29">
+  <conditionalFormatting sqref="C4:C17 C18:D30 D13:D17 C31:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E11 D30:E1048576 E12:E29">
+  <conditionalFormatting sqref="D4:E12 E13:E30 D31:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="178"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
